--- a/SQL_Feladat_SM_2022_11_23.xlsx
+++ b/SQL_Feladat_SM_2022_11_23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nigger1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CA22EB-DFE5-4EBD-8891-DC5C8215A51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBABAF6-3A05-4116-AAB0-44BB84E79A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2C21F9F-AC7E-4666-97B2-69ACB94E644C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2C21F9F-AC7E-4666-97B2-69ACB94E644C}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="128">
   <si>
     <t xml:space="preserve">A világ össz-GDP-jének hány százalékát adja az USA? </t>
   </si>
@@ -308,24 +308,6 @@
     <t>SELECT `orszag` FROM `orszagok` WHERE `penznem` like '%korona%';</t>
   </si>
   <si>
-    <t>SELECT SUM(`terulet`) FROM `orszagok` WHERE `orszag` like 'Norvégia'or 'Svédország'or 'Finnország'or 'Dánia'or 'Izland'or 'Nagy'or 'United'or 'Írország'or 'Franciaország'or 'Benelux'or 'Belgium'or 'Hollandia'or 'Luxemburg'or 'Portugália'or 'Spanyolország'or 'Olaszország'or 'Szlovénia'or 'Horvátország'or 'Szerbia'or 'Montenegró'or 'Bosznia'or 'Macedónia'or 'Kosovo'or 'Albánia'or 'Bulgária'or 'Görögország'or 'Észtország'or 'Lettország'or 'Litvánia'or 'Románia'or 'Moldova'or 'Oroszország'or 'Ukrajna'or 'Belorusszia'or 'Németország'or 'Svájc'or 'Ausztria'or 'Csehország'or 'Lengyelország'or 'Szlovákia'or 'Magyarország'or 'Ciprus'or 'Málta'or 'Monaco'or 'San'or 'Andorra'or 'Liechtenstein'</t>
-  </si>
-  <si>
-    <t>SELECT SUM(`nepesseg`) FROM `orszagok` WHERE `orszag` like 'Norvégia' or 'Svédország'or 'Finnország'or 'Dánia'or 'Izland'or 'Nagy'or 'United'or 'Írország'or 'Franciaország'or 'Benelux'or 'Belgium'or 'Hollandia'or 'Luxemburg'or 'Portugália'or 'Spanyolország'or 'Olaszország'or 'Szlovénia'or 'Horvátország'or 'Szerbia'or 'Montenegró'or 'Bosznia'or 'Macedónia'or 'Kosovo'or 'Albánia'or 'Bulgária'or 'Görögország'or 'Észtország'or 'Lettország'or 'Litvánia'or 'Románia'or 'Moldova'or 'Oroszország'or 'Ukrajna'or 'Belorusszia'or 'Németország'or 'Svájc'or 'Ausztria'or 'Csehország'or 'Lengyelország'or 'Szlovákia'or 'Magyarország'or 'Ciprus'or 'Málta'or 'Monaco'or 'San'or 'Andorra'or 'Liechtenstein'</t>
-  </si>
-  <si>
-    <t>SELECT SUM(`nepesseg`)/`terulet` FROM `orszagok` WHERE `orszag` like 'Norvégia' or 'Svédország'or 'Finnország'or 'Dánia'or 'Izland'or 'Nagy'or 'United'or 'Írország'or 'Franciaország'or 'Benelux'or 'Belgium'or 'Hollandia'or 'Luxemburg'or 'Portugália'or 'Spanyolország'or 'Olaszország'or 'Szlovénia'or 'Horvátország'or 'Szerbia'or 'Montenegró'or 'Bosznia'or 'Macedónia'or 'Kosovo'or 'Albánia'or 'Bulgária'or 'Görögország'or 'Észtország'or 'Lettország'or 'Litvánia'or 'Románia'or 'Moldova'or 'Oroszország'or 'Ukrajna'or 'Belorusszia'or 'Németország'or 'Svájc'or 'Ausztria'or 'Csehország'or 'Lengyelország'or 'Szlovákia'or 'Magyarország'or 'Ciprus'or 'Málta'or 'Monaco'or 'San'or 'Andorra'or 'Liechtenstein'</t>
-  </si>
-  <si>
-    <t>SELECT COUNT(`orszag`) FROM `orszagok` WHERE `telefon` like 213 or 231 or   244 or  218 or 261 or 229 or 265 or 245 or 223 or 267 or 212 or 222 or 226 or 230 or 257 or 262 or 269 or 258 or 235 or 264 or 27 or 227 or  253 or  234 or  240 or 212 or 20 or  250 or 225 or  290 or  291 or 239 or  251 or 248 or  232 or  221 or 241 or 252 or 220 or 249 or 233 or  268 or 262 or 224 or 255 or 228 or 237 or 216 or 254 or 256 or 243 or 260 or 242 or 263 or 236 or 238 ;</t>
-  </si>
-  <si>
-    <t>SELECT SUM(`nepesseg`) FROM `orszagok` WHERE `telefon` like 213 or 231 or   244 or  218 or 261 or 229 or 265 or 245 or 223 or 267 or 212 or 222 or 226 or 230 or 257 or 262 or 269 or 258 or 235 or 264 or 27 or 227 or  253 or  234 or  240 or 212 or 20 or  250 or 225 or  290 or  291 or 239 or  251 or 248 or  232 or  221 or 241 or 252 or 220 or 249 or 233 or  268 or 262 or 224 or 255 or 228 or 237 or 216 or 254 or 256 or 243 or 260 or 242 or 263 or 236 or 238 ;</t>
-  </si>
-  <si>
-    <t>SELECT SUM(`nepesseg`)/`terulet` FROM `orszagok` WHERE `telefon` like 213 or 231 or   244 or  218 or 261 or 229 or 265 or 245 or 223 or 267 or 212 or 222 or 226 or 230 or 257 or 262 or 269 or 258 or 235 or 264 or 27 or 227 or  253 or  234 or  240 or 212 or 20 or  250 or 225 or  290 or  291 or 239 or  251 or 248 or  232 or  221 or 241 or 252 or 220 or 249 or 233 or  268 or 262 or 224 or 255 or 228 or 237 or 216 or 254 or 256 or 243 or 260 or 242 or 263 or 236 or 238 ;</t>
-  </si>
-  <si>
     <t>--</t>
   </si>
   <si>
@@ -359,9 +341,6 @@
     <t xml:space="preserve">SELECT MIN(`nepesseg`)/`terulet`,`orszag` FROM `orszagok` </t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT MAX(`terulet`),`orszag` FROM `orszagok`  WHERE `telefon` like 213 or 231 or   244 or  218 or 261 or 229 or 265 or 245 or 223 or 267 or 212 or 222 or 226 or 230 or 257 or 262 or 269 or 258 or 235 or 264 or 27 or 227 or  253 or  234 or  240 or 212 or 20 or  250 or 225 or  290 or  291 or 239 or  251 or 248 or  232 or  221 or 241 or 252 or 220 or 249 or 233 or  268 or 262 or 224 or 255 or 228 or 237 or 216 or 254 or 256 or 243 or 260 or 242 or 263 or 236 or 238 </t>
-  </si>
-  <si>
     <t>SELECT `nep_fovaros` FROM `orszagok` order by `nep_fovaros` DESC limit 6</t>
   </si>
   <si>
@@ -411,6 +390,36 @@
   </si>
   <si>
     <t>SELECT COUNT(`penznem`) FROM `orszagok` HAVING COUNT(`penznem`) &gt; 1</t>
+  </si>
+  <si>
+    <t>SELECT SUM(`terulet`) FROM `orszagok` WHERE `foldr_hely` like '%Európa%';</t>
+  </si>
+  <si>
+    <t>SELECT SUM(`nepesseg`) FROM `orszagok` WHERE `foldr_hely` like '%Európa%';</t>
+  </si>
+  <si>
+    <t>SELECT SUM(`nepesseg`)/`terulet` FROM `orszagok` WHERE `foldr_hely` like '%Európa%';</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(`orszag`) FROM `orszagok` WHERE `foldr_hely` like '%Afrika%';</t>
+  </si>
+  <si>
+    <t>SELECT SUM(`nepesseg`) FROM `orszagok` WHERE `foldr_hely` like '%Afrika%';</t>
+  </si>
+  <si>
+    <t>SELECT SUM(`nepesseg`)/`terulet` FROM `orszagok` WHERE `foldr_hely` like '%Afrika%';</t>
+  </si>
+  <si>
+    <t>SELECT `orszag` FROM `orszagok` WHERE `foldr_hely` like '%szigetország%';</t>
+  </si>
+  <si>
+    <t>SELECT MAX(`terulet`),`orszag` FROM `orszagok`  WHERE `foldr_hely` like '%Afrika%';</t>
+  </si>
+  <si>
+    <t>SELECT `orszag`, MIN(`nepesseg`), MIN(`terulet`) FROM `orszagok` WHERE `foldr_hely` like '%Amerika%'</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT(`allamforma`) FROM `orszagok` WHERE `foldr_hely` like '%Európa%';</t>
   </si>
 </sst>
 </file>
@@ -851,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C195EE82-F3E4-4A8B-97A1-1BF76C6A91BB}">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1156,7 +1165,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1167,7 +1176,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1178,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1189,7 +1198,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1200,18 +1209,18 @@
         <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>32</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1222,7 +1231,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1233,7 +1242,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1244,7 +1253,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1255,7 +1264,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1266,7 +1275,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1277,7 +1286,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,7 +1297,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,7 +1308,7 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1310,7 +1319,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1321,7 +1330,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1332,18 +1341,18 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1354,7 +1363,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,7 +1374,7 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,7 +1385,7 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1387,7 +1396,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1407,7 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,7 +1418,7 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1420,7 +1429,7 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1431,7 +1440,7 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,7 +1451,7 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1453,7 +1462,7 @@
         <v>55</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1464,7 +1473,7 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1475,7 +1484,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1486,7 +1495,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1519,18 +1528,18 @@
         <v>59</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>61</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1541,7 +1550,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1552,7 +1561,7 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1563,7 +1572,7 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1574,7 +1583,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
